--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -237,7 +237,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="G5" t="n">
         <v>13.0</v>
@@ -421,7 +421,7 @@
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -467,7 +467,7 @@
         <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>71.0</v>
+        <v>75.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -260,7 +260,7 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -283,7 +283,7 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -421,7 +421,7 @@
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -444,7 +444,7 @@
         <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -467,7 +467,7 @@
         <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>75.0</v>
+        <v>78.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -490,7 +490,7 @@
         <v>19</v>
       </c>
       <c r="F16" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G16" t="n">
         <v>2.0</v>
@@ -513,7 +513,7 @@
         <v>21</v>
       </c>
       <c r="F17" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -240,7 +240,7 @@
         <v>11.0</v>
       </c>
       <c r="G5" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="6">
@@ -286,7 +286,7 @@
         <v>18.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -240,7 +240,7 @@
         <v>11.0</v>
       </c>
       <c r="G5" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="6">
@@ -263,7 +263,7 @@
         <v>7.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -240,7 +240,7 @@
         <v>11.0</v>
       </c>
       <c r="G5" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="6">
@@ -263,7 +263,7 @@
         <v>7.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -214,7 +214,7 @@
         <v>21</v>
       </c>
       <c r="F4" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -263,7 +263,7 @@
         <v>7.0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -352,7 +352,7 @@
         <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -375,7 +375,7 @@
         <v>21</v>
       </c>
       <c r="F11" t="n">
-        <v>311.0</v>
+        <v>319.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
@@ -493,7 +493,7 @@
         <v>5.0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="17">
@@ -516,7 +516,7 @@
         <v>12.0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -536,7 +536,7 @@
         <v>19</v>
       </c>
       <c r="F18" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G18" t="n">
         <v>0.0</v>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -240,7 +240,7 @@
         <v>11.0</v>
       </c>
       <c r="G5" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="6">

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -263,7 +263,7 @@
         <v>7.0</v>
       </c>
       <c r="G6" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
@@ -283,7 +283,7 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="G7" t="n">
         <v>1.0</v>
@@ -421,7 +421,7 @@
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -444,7 +444,7 @@
         <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -467,7 +467,7 @@
         <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>78.0</v>
+        <v>79.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -539,7 +539,7 @@
         <v>9.0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -283,7 +283,7 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="G7" t="n">
         <v>1.0</v>
@@ -421,7 +421,7 @@
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -444,7 +444,7 @@
         <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -467,7 +467,7 @@
         <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>79.0</v>
+        <v>80.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -263,7 +263,7 @@
         <v>7.0</v>
       </c>
       <c r="G6" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
@@ -421,7 +421,7 @@
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -444,7 +444,7 @@
         <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>25.0</v>
+        <v>37.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -467,7 +467,7 @@
         <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>80.0</v>
+        <v>85.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -237,7 +237,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="G5" t="n">
         <v>18.0</v>
@@ -263,7 +263,7 @@
         <v>7.0</v>
       </c>
       <c r="G6" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="7">
@@ -421,7 +421,7 @@
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>33.0</v>
+        <v>37.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -444,7 +444,7 @@
         <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>37.0</v>
+        <v>40.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -467,7 +467,7 @@
         <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -490,7 +490,7 @@
         <v>19</v>
       </c>
       <c r="F16" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G16" t="n">
         <v>8.0</v>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -168,7 +168,7 @@
         <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -214,7 +214,7 @@
         <v>21</v>
       </c>
       <c r="F4" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -329,7 +329,7 @@
         <v>19</v>
       </c>
       <c r="F9" t="n">
-        <v>18.0</v>
+        <v>25.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -352,7 +352,7 @@
         <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -375,7 +375,7 @@
         <v>21</v>
       </c>
       <c r="F11" t="n">
-        <v>319.0</v>
+        <v>338.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Found dead" r:id="rId3" sheetId="1"/>
+    <sheet name="Active search" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="22">
   <si>
     <t>Area</t>
   </si>
@@ -421,7 +422,7 @@
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -444,7 +445,7 @@
         <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -467,7 +468,7 @@
         <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>86.0</v>
+        <v>92.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -563,6 +564,53 @@
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="19">
   <si>
     <t>Area</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Ca</t>
   </si>
   <si>
-    <t>Cl</t>
-  </si>
-  <si>
     <t>INF</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>Campania</t>
   </si>
   <si>
-    <t>Calabria</t>
-  </si>
-  <si>
     <t>Potenza</t>
   </si>
   <si>
@@ -67,9 +61,6 @@
   </si>
   <si>
     <t>Avellino</t>
-  </si>
-  <si>
-    <t>Reggio calabria</t>
   </si>
   <si>
     <t>No</t>
@@ -157,16 +148,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
         <v>4.0</v>
@@ -180,16 +171,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F3" t="n">
         <v>1.0</v>
@@ -203,16 +194,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F4" t="n">
         <v>19.0</v>
@@ -226,16 +217,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
         <v>12.0</v>
@@ -249,16 +240,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
         <v>7.0</v>
@@ -272,16 +263,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F7" t="n">
         <v>21.0</v>
@@ -295,16 +286,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F8" t="n">
         <v>1.0</v>
@@ -318,16 +309,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F9" t="n">
         <v>25.0</v>
@@ -341,16 +332,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F10" t="n">
         <v>12.0</v>
@@ -364,16 +355,16 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F11" t="n">
         <v>338.0</v>
@@ -387,16 +378,16 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F12" t="n">
         <v>1.0</v>
@@ -410,16 +401,16 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F13" t="n">
         <v>38.0</v>
@@ -433,16 +424,16 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F14" t="n">
         <v>46.0</v>
@@ -456,113 +447,21 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F15" t="n">
         <v>92.0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G19" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -601,13 +500,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
         <v>1.0</v>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -275,7 +275,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="G7" t="n">
         <v>1.0</v>
@@ -436,7 +436,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -459,7 +459,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>92.0</v>
+        <v>97.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -509,7 +509,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -413,7 +413,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>38.0</v>
+        <v>42.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -436,7 +436,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>48.0</v>
+        <v>50.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -459,7 +459,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>97.0</v>
+        <v>101.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -275,7 +275,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="G7" t="n">
         <v>1.0</v>
@@ -436,7 +436,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -459,7 +459,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>101.0</v>
+        <v>104.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -413,7 +413,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -436,7 +436,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -459,7 +459,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>104.0</v>
+        <v>110.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -413,7 +413,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -436,7 +436,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -459,7 +459,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>110.0</v>
+        <v>112.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -275,7 +275,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="G7" t="n">
         <v>1.0</v>
@@ -413,7 +413,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -436,7 +436,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -459,7 +459,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -321,7 +321,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="n">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -344,7 +344,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -367,7 +367,7 @@
         <v>18</v>
       </c>
       <c r="F11" t="n">
-        <v>338.0</v>
+        <v>355.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -275,7 +275,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="G7" t="n">
         <v>1.0</v>
@@ -413,7 +413,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>46.0</v>
+        <v>49.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -436,7 +436,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>55.0</v>
+        <v>58.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -459,7 +459,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>115.0</v>
+        <v>117.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -459,7 +459,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>117.0</v>
+        <v>119.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -229,7 +229,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="G5" t="n">
         <v>18.0</v>
@@ -252,7 +252,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="G6" t="n">
         <v>8.0</v>
@@ -413,7 +413,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>49.0</v>
+        <v>52.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -436,7 +436,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -459,7 +459,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>119.0</v>
+        <v>124.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -275,7 +275,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="G7" t="n">
         <v>1.0</v>
@@ -413,7 +413,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -436,7 +436,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -459,7 +459,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>124.0</v>
+        <v>132.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -252,7 +252,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="G6" t="n">
         <v>8.0</v>
@@ -275,7 +275,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="G7" t="n">
         <v>1.0</v>
@@ -413,7 +413,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -436,7 +436,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>60.0</v>
+        <v>62.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -459,7 +459,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>132.0</v>
+        <v>136.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -255,7 +255,7 @@
         <v>11.0</v>
       </c>
       <c r="G6" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="7">

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -206,7 +206,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -321,7 +321,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="n">
-        <v>29.0</v>
+        <v>35.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -344,7 +344,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -367,7 +367,7 @@
         <v>18</v>
       </c>
       <c r="F11" t="n">
-        <v>355.0</v>
+        <v>377.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -413,7 +413,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>55.0</v>
+        <v>57.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -436,7 +436,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>62.0</v>
+        <v>66.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -459,7 +459,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>136.0</v>
+        <v>149.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -367,7 +367,7 @@
         <v>18</v>
       </c>
       <c r="F11" t="n">
-        <v>377.0</v>
+        <v>378.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -229,7 +229,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="G5" t="n">
         <v>18.0</v>
@@ -252,7 +252,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="G6" t="n">
         <v>7.0</v>
@@ -275,7 +275,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="G7" t="n">
         <v>1.0</v>
@@ -413,7 +413,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -436,7 +436,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>66.0</v>
+        <v>69.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -459,7 +459,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>149.0</v>
+        <v>155.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="30">
   <si>
     <t>Area</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Cuneo</t>
+  </si>
+  <si>
+    <t>Milano</t>
   </si>
   <si>
     <t>Torino</t>
@@ -190,7 +193,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -216,7 +219,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="n">
         <v>3.0</v>
@@ -242,7 +245,7 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" t="n">
         <v>5.0</v>
@@ -268,7 +271,7 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" t="n">
         <v>3.0</v>
@@ -294,7 +297,7 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" t="n">
         <v>195.0</v>
@@ -320,7 +323,7 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" t="n">
         <v>25.0</v>
@@ -346,7 +349,7 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" t="n">
         <v>26.0</v>
@@ -372,7 +375,7 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" t="n">
         <v>4.0</v>
@@ -398,7 +401,7 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" t="n">
         <v>12.0</v>
@@ -424,7 +427,7 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" t="n">
         <v>4.0</v>
@@ -450,7 +453,7 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12" t="n">
         <v>5.0</v>
@@ -476,7 +479,7 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" t="n">
         <v>8.0</v>
@@ -502,7 +505,7 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" t="n">
         <v>17.0</v>
@@ -528,7 +531,7 @@
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F15" t="n">
         <v>8.0</v>
@@ -554,7 +557,7 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F16" t="n">
         <v>5.0</v>
@@ -580,7 +583,7 @@
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17" t="n">
         <v>37.0</v>
@@ -606,7 +609,7 @@
         <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F18" t="n">
         <v>94.0</v>
@@ -632,7 +635,7 @@
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F19" t="n">
         <v>3.0</v>
@@ -658,7 +661,7 @@
         <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F20" t="n">
         <v>19.0</v>
@@ -684,7 +687,7 @@
         <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F21" t="n">
         <v>10.0</v>
@@ -710,7 +713,7 @@
         <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F22" t="n">
         <v>20.0</v>
@@ -736,7 +739,7 @@
         <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F23" t="n">
         <v>10.0</v>
@@ -762,7 +765,7 @@
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F24" t="n">
         <v>5.0</v>
@@ -788,7 +791,7 @@
         <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F25" t="n">
         <v>1.0</v>
@@ -814,7 +817,7 @@
         <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F26" t="n">
         <v>776.0</v>
@@ -823,7 +826,7 @@
         <v>27.0</v>
       </c>
       <c r="H26" t="n">
-        <v>211.0</v>
+        <v>213.0</v>
       </c>
     </row>
     <row r="27">
@@ -840,7 +843,7 @@
         <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F27" t="n">
         <v>66.0</v>
@@ -866,7 +869,7 @@
         <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F28" t="n">
         <v>147.0</v>
@@ -892,7 +895,7 @@
         <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F29" t="n">
         <v>68.0</v>
@@ -918,7 +921,7 @@
         <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F30" t="n">
         <v>67.0</v>
@@ -944,7 +947,7 @@
         <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F31" t="n">
         <v>43.0</v>
@@ -970,7 +973,7 @@
         <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F32" t="n">
         <v>15.0</v>
@@ -996,7 +999,7 @@
         <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F33" t="n">
         <v>26.0</v>
@@ -1022,7 +1025,7 @@
         <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F34" t="n">
         <v>40.0</v>
@@ -1048,7 +1051,7 @@
         <v>22</v>
       </c>
       <c r="E35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F35" t="n">
         <v>95.0</v>
@@ -1074,7 +1077,7 @@
         <v>22</v>
       </c>
       <c r="E36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F36" t="n">
         <v>121.0</v>
@@ -1100,7 +1103,7 @@
         <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F37" t="n">
         <v>210.0</v>
@@ -1126,7 +1129,7 @@
         <v>23</v>
       </c>
       <c r="E38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F38" t="n">
         <v>9.0</v>
@@ -1152,7 +1155,7 @@
         <v>23</v>
       </c>
       <c r="E39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F39" t="n">
         <v>8.0</v>
@@ -1178,7 +1181,7 @@
         <v>23</v>
       </c>
       <c r="E40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F40" t="n">
         <v>9.0</v>
@@ -1204,7 +1207,7 @@
         <v>24</v>
       </c>
       <c r="E41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F41" t="n">
         <v>1.0</v>
@@ -1227,19 +1230,19 @@
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F42" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
@@ -1253,13 +1256,13 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F43" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="G43" t="n">
         <v>0.0</v>
@@ -1279,13 +1282,13 @@
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F44" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="G44" t="n">
         <v>0.0</v>
@@ -1299,25 +1302,25 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F45" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="46">
@@ -1325,19 +1328,19 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F46" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G46" t="n">
         <v>0.0</v>
@@ -1351,19 +1354,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F47" t="n">
-        <v>48.0</v>
+        <v>14.0</v>
       </c>
       <c r="G47" t="n">
         <v>0.0</v>
@@ -1383,13 +1386,13 @@
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F48" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="G48" t="n">
         <v>0.0</v>
@@ -1409,13 +1412,13 @@
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F49" t="n">
-        <v>17.0</v>
+        <v>6.0</v>
       </c>
       <c r="G49" t="n">
         <v>0.0</v>
@@ -1435,13 +1438,13 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F50" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="G50" t="n">
         <v>0.0</v>
@@ -1458,16 +1461,16 @@
         <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F51" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
       <c r="G51" t="n">
         <v>0.0</v>
@@ -1484,16 +1487,16 @@
         <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F52" t="n">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
       <c r="G52" t="n">
         <v>0.0</v>
@@ -1510,16 +1513,16 @@
         <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F53" t="n">
-        <v>4.0</v>
+        <v>46.0</v>
       </c>
       <c r="G53" t="n">
         <v>0.0</v>
@@ -1539,13 +1542,13 @@
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E54" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F54" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="G54" t="n">
         <v>0.0</v>
@@ -1565,13 +1568,13 @@
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F55" t="n">
-        <v>20.0</v>
+        <v>5.0</v>
       </c>
       <c r="G55" t="n">
         <v>0.0</v>
@@ -1591,13 +1594,13 @@
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F56" t="n">
-        <v>55.0</v>
+        <v>4.0</v>
       </c>
       <c r="G56" t="n">
         <v>0.0</v>
@@ -1614,16 +1617,16 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E57" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F57" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="G57" t="n">
         <v>0.0</v>
@@ -1640,16 +1643,16 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F58" t="n">
-        <v>33.0</v>
+        <v>20.0</v>
       </c>
       <c r="G58" t="n">
         <v>0.0</v>
@@ -1666,16 +1669,16 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F59" t="n">
-        <v>94.0</v>
+        <v>55.0</v>
       </c>
       <c r="G59" t="n">
         <v>0.0</v>
@@ -1692,16 +1695,16 @@
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E60" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F60" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="G60" t="n">
         <v>0.0</v>
@@ -1718,16 +1721,16 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F61" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="G61" t="n">
         <v>0.0</v>
@@ -1744,16 +1747,16 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F62" t="n">
-        <v>31.0</v>
+        <v>10.0</v>
       </c>
       <c r="G62" t="n">
         <v>0.0</v>
@@ -1770,16 +1773,16 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E63" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F63" t="n">
-        <v>38.0</v>
+        <v>12.0</v>
       </c>
       <c r="G63" t="n">
         <v>0.0</v>
@@ -1796,16 +1799,16 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F64" t="n">
-        <v>17.0</v>
+        <v>33.0</v>
       </c>
       <c r="G64" t="n">
         <v>0.0</v>
@@ -1822,16 +1825,16 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F65" t="n">
-        <v>51.0</v>
+        <v>94.0</v>
       </c>
       <c r="G65" t="n">
         <v>0.0</v>
@@ -1851,16 +1854,16 @@
         <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E66" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F66" t="n">
-        <v>55.0</v>
+        <v>3.0</v>
       </c>
       <c r="G66" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H66" t="n">
         <v>0.0</v>
@@ -1877,16 +1880,16 @@
         <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F67" t="n">
-        <v>97.0</v>
+        <v>13.0</v>
       </c>
       <c r="G67" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H67" t="n">
         <v>0.0</v>
@@ -1903,16 +1906,16 @@
         <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F68" t="n">
-        <v>153.0</v>
+        <v>31.0</v>
       </c>
       <c r="G68" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H68" t="n">
         <v>0.0</v>
@@ -1929,18 +1932,174 @@
         <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E69" t="s">
+        <v>27</v>
+      </c>
+      <c r="F69" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" t="s">
+        <v>27</v>
+      </c>
+      <c r="F72" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" t="s">
         <v>26</v>
       </c>
-      <c r="F69" t="n">
+      <c r="E75" t="s">
+        <v>27</v>
+      </c>
+      <c r="F75" t="n">
         <v>1.0</v>
       </c>
-      <c r="G69" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H69" t="n">
+      <c r="G75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H75" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -261,7 +261,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -313,7 +313,7 @@
         <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -235,13 +235,13 @@
         <v>14</v>
       </c>
       <c r="F5" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G5" t="n">
         <v>1.0</v>
       </c>
       <c r="H5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -261,7 +261,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -287,7 +287,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -241,7 +241,7 @@
         <v>1.0</v>
       </c>
       <c r="H5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="16">
   <si>
     <t>Area</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>Negative</t>
-  </si>
-  <si>
-    <t>Not performed</t>
   </si>
   <si>
     <t>Positive</t>
@@ -136,25 +133,22 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -162,25 +156,22 @@
       <c r="G2" t="n">
         <v>0.0</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="n">
         <v>2.0</v>
@@ -188,25 +179,22 @@
       <c r="G3" t="n">
         <v>0.0</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="n">
         <v>2.0</v>
@@ -214,103 +202,91 @@
       <c r="G4" t="n">
         <v>0.0</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
       <c r="F5" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H6" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="n">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H7" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
         <v>9.0</v>
@@ -318,25 +294,22 @@
       <c r="G8" t="n">
         <v>0.0</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="n">
         <v>2.0</v>
@@ -344,33 +317,27 @@
       <c r="G9" t="n">
         <v>0.0</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="n">
         <v>10.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H10" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -401,24 +368,24 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -266,7 +266,7 @@
         <v>15</v>
       </c>
       <c r="F7" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -312,7 +312,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -335,7 +335,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -151,7 +151,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -246,7 +246,7 @@
         <v>4.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">

--- a/Download/wild_boar_ZP.xlsx
+++ b/Download/wild_boar_ZP.xlsx
@@ -151,7 +151,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
